--- a/conven_control/data/non_optimized_curved.xlsx
+++ b/conven_control/data/non_optimized_curved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>J1</t>
   </si>
@@ -46,10 +46,7 @@
     <t>dz</t>
   </si>
   <si>
-    <t>[ 0.7238 -0.0505 -0.2786 -0.0023 -0.9307  0.0024 -0.3658]</t>
-  </si>
-  <si>
-    <t>[ 0.7238 -0.0505 -0.2786  0.0024  0.9307 -0.0025  0.3659]</t>
+    <t>[   0.7238   -0.0505   -0.278  -122.4354   42.8765  179.7921]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,69 +447,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-7.861</v>
+        <v>4.938</v>
       </c>
       <c r="C2">
-        <v>52.651</v>
+        <v>66.63</v>
       </c>
       <c r="D2">
-        <v>74.70399999999999</v>
+        <v>59.243</v>
       </c>
       <c r="E2">
-        <v>-153.235</v>
+        <v>-80.26900000000001</v>
       </c>
       <c r="F2">
-        <v>-11.125</v>
+        <v>62.379</v>
       </c>
       <c r="G2">
-        <v>148.052</v>
+        <v>77.441</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3.482</v>
+        <v>3.369</v>
       </c>
       <c r="J2">
-        <v>-0.575</v>
+        <v>0.054</v>
       </c>
       <c r="K2">
-        <v>7.548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-7.858</v>
-      </c>
-      <c r="C3">
-        <v>52.649</v>
-      </c>
-      <c r="D3">
-        <v>74.709</v>
-      </c>
-      <c r="E3">
-        <v>-153.283</v>
-      </c>
-      <c r="F3">
-        <v>-11.112</v>
-      </c>
-      <c r="G3">
-        <v>148.105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>3.482</v>
-      </c>
-      <c r="J3">
-        <v>-0.575</v>
-      </c>
-      <c r="K3">
-        <v>7.548</v>
+        <v>7.825</v>
       </c>
     </row>
   </sheetData>

--- a/conven_control/data/non_optimized_curved.xlsx
+++ b/conven_control/data/non_optimized_curved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>J1</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>[   0.7238   -0.0505   -0.278  -122.4354   42.8765  179.7921]</t>
+  </si>
+  <si>
+    <t>[  0.7238  -0.0505  -0.278  164.8375  42.9768 179.8655]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,34 +450,69 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.938</v>
+        <v>11.553</v>
       </c>
       <c r="C2">
-        <v>66.63</v>
+        <v>77.5</v>
       </c>
       <c r="D2">
-        <v>59.243</v>
+        <v>83.211</v>
       </c>
       <c r="E2">
-        <v>-80.26900000000001</v>
+        <v>233.707</v>
       </c>
       <c r="F2">
-        <v>62.379</v>
+        <v>127.787</v>
       </c>
       <c r="G2">
-        <v>77.441</v>
+        <v>157.181</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3.369</v>
+        <v>2.038</v>
       </c>
       <c r="J2">
-        <v>0.054</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="K2">
-        <v>7.825</v>
+        <v>3.104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-20.666</v>
+      </c>
+      <c r="C3">
+        <v>74.187</v>
+      </c>
+      <c r="D3">
+        <v>102.977</v>
+      </c>
+      <c r="E3">
+        <v>-213.973</v>
+      </c>
+      <c r="F3">
+        <v>134.694</v>
+      </c>
+      <c r="G3">
+        <v>-177.533</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>1.078</v>
+      </c>
+      <c r="J3">
+        <v>-0.547</v>
+      </c>
+      <c r="K3">
+        <v>1.927</v>
       </c>
     </row>
   </sheetData>

--- a/conven_control/data/non_optimized_curved.xlsx
+++ b/conven_control/data/non_optimized_curved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>J1</t>
   </si>
@@ -46,10 +46,49 @@
     <t>dz</t>
   </si>
   <si>
-    <t>[   0.7238   -0.0505   -0.278  -122.4354   42.8765  179.7921]</t>
-  </si>
-  <si>
-    <t>[  0.7238  -0.0505  -0.278  164.8375  42.9768 179.8655]</t>
+    <t>[   0.65     -0.35     -0.278  -165.4943   90.     -165.4444]</t>
+  </si>
+  <si>
+    <t>[  0.65    -0.2     -0.278  -62.1217  90.     -62.1505]</t>
+  </si>
+  <si>
+    <t>[   0.65     -0.05     -0.278  -148.4226   90.     -148.3401]</t>
+  </si>
+  <si>
+    <t>[  0.65     0.1     -0.278  137.8583  90.     137.9333]</t>
+  </si>
+  <si>
+    <t>[   0.65      0.25     -0.278  -145.4223   90.     -145.3376]</t>
+  </si>
+  <si>
+    <t>[   0.8      -0.35     -0.278  -126.1076   90.     -126.1091]</t>
+  </si>
+  <si>
+    <t>[ 0.8    -0.2    -0.278  -3.0585 90.     -3.034 ]</t>
+  </si>
+  <si>
+    <t>[ 0.8    -0.05   -0.278   1.8062 90.      1.7817]</t>
+  </si>
+  <si>
+    <t>[  0.8      0.1     -0.278  155.8784  90.     155.8743]</t>
+  </si>
+  <si>
+    <t>[   0.8       0.25     -0.278  -134.6619   90.     -134.5996]</t>
+  </si>
+  <si>
+    <t>[  0.95    -0.35    -0.278  132.0622  90.     132.082 ]</t>
+  </si>
+  <si>
+    <t>[  0.95    -0.2     -0.278  130.5349  90.     130.5801]</t>
+  </si>
+  <si>
+    <t>[ 0.95   -0.05   -0.278  63.5941 90.     63.6028]</t>
+  </si>
+  <si>
+    <t>[  0.95     0.1     -0.278  111.2028  90.     111.2848]</t>
+  </si>
+  <si>
+    <t>[  0.95     0.25    -0.278  -51.2968  90.     -51.2446]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,34 +489,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.553</v>
+        <v>-42.464</v>
       </c>
       <c r="C2">
-        <v>77.5</v>
+        <v>49.049</v>
       </c>
       <c r="D2">
-        <v>83.211</v>
+        <v>104.285</v>
       </c>
       <c r="E2">
-        <v>233.707</v>
+        <v>-223.115</v>
       </c>
       <c r="F2">
-        <v>127.787</v>
+        <v>68.75</v>
       </c>
       <c r="G2">
-        <v>157.181</v>
+        <v>197.84</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2.038</v>
+        <v>0.848</v>
       </c>
       <c r="J2">
-        <v>0.6909999999999999</v>
+        <v>-3.923</v>
       </c>
       <c r="K2">
-        <v>3.104</v>
+        <v>4.455</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -485,34 +524,489 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-20.666</v>
+        <v>-30.373</v>
       </c>
       <c r="C3">
-        <v>74.187</v>
+        <v>46.083</v>
       </c>
       <c r="D3">
-        <v>102.977</v>
+        <v>116.917</v>
       </c>
       <c r="E3">
-        <v>-213.973</v>
+        <v>149.673</v>
       </c>
       <c r="F3">
-        <v>134.694</v>
+        <v>77.04900000000001</v>
       </c>
       <c r="G3">
-        <v>-177.533</v>
+        <v>188.509</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3">
-        <v>1.078</v>
+        <v>1.245</v>
       </c>
       <c r="J3">
-        <v>-0.547</v>
+        <v>-2.786</v>
       </c>
       <c r="K3">
-        <v>1.927</v>
+        <v>3.155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-10.275</v>
+      </c>
+      <c r="C4">
+        <v>43.447</v>
+      </c>
+      <c r="D4">
+        <v>122.236</v>
+      </c>
+      <c r="E4">
+        <v>-183.951</v>
+      </c>
+      <c r="F4">
+        <v>75.215</v>
+      </c>
+      <c r="G4">
+        <v>180.948</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>1.626</v>
+      </c>
+      <c r="J4">
+        <v>-1.685</v>
+      </c>
+      <c r="K4">
+        <v>2.771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7.823</v>
+      </c>
+      <c r="C5">
+        <v>43.898</v>
+      </c>
+      <c r="D5">
+        <v>120.178</v>
+      </c>
+      <c r="E5">
+        <v>-167.201</v>
+      </c>
+      <c r="F5">
+        <v>73.727</v>
+      </c>
+      <c r="G5">
+        <v>176.487</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>1.809</v>
+      </c>
+      <c r="J5">
+        <v>-0.791</v>
+      </c>
+      <c r="K5">
+        <v>2.811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>22.754</v>
+      </c>
+      <c r="C6">
+        <v>45.875</v>
+      </c>
+      <c r="D6">
+        <v>112.287</v>
+      </c>
+      <c r="E6">
+        <v>23.926</v>
+      </c>
+      <c r="F6">
+        <v>-68.04900000000001</v>
+      </c>
+      <c r="G6">
+        <v>-8.677</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>2.029</v>
+      </c>
+      <c r="J6">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K6">
+        <v>3.408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-29.525</v>
+      </c>
+      <c r="C7">
+        <v>57.246</v>
+      </c>
+      <c r="D7">
+        <v>84.89700000000001</v>
+      </c>
+      <c r="E7">
+        <v>-12.862</v>
+      </c>
+      <c r="F7">
+        <v>-53.016</v>
+      </c>
+      <c r="G7">
+        <v>7.881</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1.424</v>
+      </c>
+      <c r="J7">
+        <v>-4.234</v>
+      </c>
+      <c r="K7">
+        <v>6.619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-23.899</v>
+      </c>
+      <c r="C8">
+        <v>54.42</v>
+      </c>
+      <c r="D8">
+        <v>93.196</v>
+      </c>
+      <c r="E8">
+        <v>-208.294</v>
+      </c>
+      <c r="F8">
+        <v>62.691</v>
+      </c>
+      <c r="G8">
+        <v>-165.305</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>1.887</v>
+      </c>
+      <c r="J8">
+        <v>-3.624</v>
+      </c>
+      <c r="K8">
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-8.048</v>
+      </c>
+      <c r="C9">
+        <v>51.632</v>
+      </c>
+      <c r="D9">
+        <v>98.003</v>
+      </c>
+      <c r="E9">
+        <v>-3.05</v>
+      </c>
+      <c r="F9">
+        <v>-59.072</v>
+      </c>
+      <c r="G9">
+        <v>1.513</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>2.483</v>
+      </c>
+      <c r="J9">
+        <v>-2.381</v>
+      </c>
+      <c r="K9">
+        <v>5.094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9.491</v>
+      </c>
+      <c r="C10">
+        <v>53.533</v>
+      </c>
+      <c r="D10">
+        <v>93.57899999999999</v>
+      </c>
+      <c r="E10">
+        <v>-150.535</v>
+      </c>
+      <c r="F10">
+        <v>60.408</v>
+      </c>
+      <c r="G10">
+        <v>164.48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>2.731</v>
+      </c>
+      <c r="J10">
+        <v>-1.042</v>
+      </c>
+      <c r="K10">
+        <v>5.195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>14.775</v>
+      </c>
+      <c r="C11">
+        <v>145.638</v>
+      </c>
+      <c r="D11">
+        <v>-91.161</v>
+      </c>
+      <c r="E11">
+        <v>-7.609</v>
+      </c>
+      <c r="F11">
+        <v>36.082</v>
+      </c>
+      <c r="G11">
+        <v>6.216</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>-1.748</v>
+      </c>
+      <c r="J11">
+        <v>-1.793</v>
+      </c>
+      <c r="K11">
+        <v>8.387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-20.387</v>
+      </c>
+      <c r="C12">
+        <v>73.20099999999999</v>
+      </c>
+      <c r="D12">
+        <v>49.27</v>
+      </c>
+      <c r="E12">
+        <v>-154.482</v>
+      </c>
+      <c r="F12">
+        <v>35.288</v>
+      </c>
+      <c r="G12">
+        <v>158.717</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>1.386</v>
+      </c>
+      <c r="J12">
+        <v>-4.581</v>
+      </c>
+      <c r="K12">
+        <v>9.823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-23.131</v>
+      </c>
+      <c r="C13">
+        <v>124.639</v>
+      </c>
+      <c r="D13">
+        <v>-53.466</v>
+      </c>
+      <c r="E13">
+        <v>70.127</v>
+      </c>
+      <c r="F13">
+        <v>45.462</v>
+      </c>
+      <c r="G13">
+        <v>-62.861</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>-1.757</v>
+      </c>
+      <c r="J13">
+        <v>-2.855</v>
+      </c>
+      <c r="K13">
+        <v>10.374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-8.09</v>
+      </c>
+      <c r="C14">
+        <v>133.705</v>
+      </c>
+      <c r="D14">
+        <v>-69.05200000000001</v>
+      </c>
+      <c r="E14">
+        <v>20.488</v>
+      </c>
+      <c r="F14">
+        <v>24.917</v>
+      </c>
+      <c r="G14">
+        <v>-18.469</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <v>-1.681</v>
+      </c>
+      <c r="J14">
+        <v>-2.539</v>
+      </c>
+      <c r="K14">
+        <v>10.016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5.884</v>
+      </c>
+      <c r="C15">
+        <v>65.877</v>
+      </c>
+      <c r="D15">
+        <v>65.343</v>
+      </c>
+      <c r="E15">
+        <v>-158.614</v>
+      </c>
+      <c r="F15">
+        <v>43.645</v>
+      </c>
+      <c r="G15">
+        <v>164.109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>3.13</v>
+      </c>
+      <c r="J15">
+        <v>-1.953</v>
+      </c>
+      <c r="K15">
+        <v>8.157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-156.413</v>
+      </c>
+      <c r="C16">
+        <v>-92.752</v>
+      </c>
+      <c r="D16">
+        <v>-9.026999999999999</v>
+      </c>
+      <c r="E16">
+        <v>68.34</v>
+      </c>
+      <c r="F16">
+        <v>30.87</v>
+      </c>
+      <c r="G16">
+        <v>114.534</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>1.975</v>
+      </c>
+      <c r="J16">
+        <v>-1.194</v>
+      </c>
+      <c r="K16">
+        <v>11.545</v>
       </c>
     </row>
   </sheetData>
